--- a/players_example.xlsx
+++ b/players_example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pie82\Downloads\calcetto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4348D97-F50F-4AE2-86E2-7A1D7D987EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF8D88E-13B9-406F-98C3-22F9630DEDA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{001D8361-7FA5-4DB7-B98F-C05084B2E55B}"/>
   </bookViews>
@@ -20,66 +20,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Position</t>
-  </si>
-  <si>
-    <t>Skill</t>
-  </si>
-  <si>
-    <t>Player 1</t>
-  </si>
-  <si>
-    <t>Forward</t>
-  </si>
-  <si>
-    <t>Player 2</t>
-  </si>
-  <si>
-    <t>Midfielder</t>
-  </si>
-  <si>
-    <t>Player 3</t>
-  </si>
-  <si>
-    <t>Defender</t>
-  </si>
-  <si>
-    <t>Player 4</t>
-  </si>
-  <si>
-    <t>Goalkeeper</t>
-  </si>
-  <si>
-    <t>Player 5</t>
-  </si>
-  <si>
-    <t>Player 6</t>
-  </si>
-  <si>
-    <t>Player 7</t>
-  </si>
-  <si>
-    <t>Player 8</t>
-  </si>
-  <si>
-    <t>Player 9</t>
-  </si>
-  <si>
-    <t>Player 10</t>
-  </si>
-  <si>
-    <t>Player 11</t>
-  </si>
-  <si>
-    <t>Player 12</t>
-  </si>
-  <si>
-    <t>Player 13</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t>Difesa</t>
+  </si>
+  <si>
+    <t>Attacco</t>
+  </si>
+  <si>
+    <t>Porta</t>
+  </si>
+  <si>
+    <t>Velocità</t>
+  </si>
+  <si>
+    <t>Tiro</t>
+  </si>
+  <si>
+    <t>Centrocampo</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>Pietro</t>
+  </si>
+  <si>
+    <t>Simone</t>
+  </si>
+  <si>
+    <t>Luciano</t>
+  </si>
+  <si>
+    <t>Marco Ma</t>
+  </si>
+  <si>
+    <t>Marco Me</t>
+  </si>
+  <si>
+    <t>Oscar</t>
+  </si>
+  <si>
+    <t>Roberto M</t>
+  </si>
+  <si>
+    <t>Roberto</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Antonello</t>
+  </si>
+  <si>
+    <t>Fabrizio</t>
+  </si>
+  <si>
+    <t>Gianfranco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrea </t>
+  </si>
+  <si>
+    <t>Presenza</t>
   </si>
 </sst>
 </file>
@@ -563,8 +566,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -940,164 +950,381 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5D4C500-E027-4013-9907-529936302786}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="3" width="9.06640625" style="3"/>
+    <col min="4" max="4" width="11.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.06640625" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>85</v>
+        <v>7</v>
+      </c>
+      <c r="B2" s="3">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3">
+        <v>2</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>78</v>
+        <v>8</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>90</v>
+        <v>9</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3">
+        <v>3</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5">
-        <v>88</v>
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>77</v>
+      <c r="B6" s="3">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>92</v>
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>76</v>
+      <c r="B9" s="3">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3">
+        <v>3</v>
+      </c>
+      <c r="D9" s="3">
+        <v>3</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2</v>
+      </c>
+      <c r="F9" s="3">
+        <v>3</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>80</v>
+      <c r="B10" s="3">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3">
+        <v>2</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <v>75</v>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>3</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2</v>
+      </c>
+      <c r="F11" s="3">
+        <v>2</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12">
-        <v>84</v>
+      <c r="B12" s="3">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13">
-        <v>81</v>
+      <c r="B13" s="3">
+        <v>3</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>3</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2</v>
+      </c>
+      <c r="F13" s="3">
+        <v>2</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14">
-        <v>86</v>
+      <c r="B14" s="3">
+        <v>2</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
